--- a/百鬼夜行/百鬼夜行説明書 .xlsx
+++ b/百鬼夜行/百鬼夜行説明書 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\就活\チーム制作\反重力\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A06ABF-8E4D-4422-82B0-5004150A9565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17F0EE9-ABF0-43A3-8BA1-8E49F9F6C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="説明書" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>百鬼夜行説明書</t>
   </si>
@@ -69,22 +69,19 @@
     <t>使用エンジン</t>
   </si>
   <si>
-    <t>Unreal Engine(Ver 5.3.2)</t>
-    <phoneticPr fontId="2"/>
+    <t>Unity(Ver 6000.043f1)</t>
   </si>
   <si>
     <t>制作期間</t>
   </si>
   <si>
-    <t>2024年11月~2025年2月(約4ヶ月)</t>
-    <phoneticPr fontId="2"/>
+    <t>2025年4月~2025年7月(現在開発途中)</t>
   </si>
   <si>
     <t>制作人数</t>
   </si>
   <si>
-    <t>6人(プログラマ：5人、ゲームプランナー1人)</t>
-    <phoneticPr fontId="2"/>
+    <t>4人(プログラマ：3人、デザイナー1人)</t>
   </si>
   <si>
     <t>担当箇所</t>
@@ -98,97 +95,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「敵のベースクラス作成」</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EnemyBase.h.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「雑魚敵1(ドローン型)の作成」</t>
-    <rPh sb="1" eb="3">
-      <t>ザコ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FlightTypeEnemy.h.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「雑魚敵2(射撃型)の作成」</t>
-    <rPh sb="1" eb="4">
-      <t>ザコテキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シャゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GroundTypeEnemy.h.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アイテムのベースクラス作成」</t>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ItemBase.h.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「HP回復アイテムの作成」</t>
-    <rPh sb="3" eb="5">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HPRecoveryItem.h.cpp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「MP回復アイテムの作成」</t>
-    <rPh sb="3" eb="5">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MpRecoveryItem.h.cpp</t>
-    <phoneticPr fontId="2"/>
+    <t>「敵キャラクターベースの作成」</t>
+  </si>
+  <si>
+    <t>EnemyBase.cs</t>
+  </si>
+  <si>
+    <t>「キャラクター全般の体力システムの作成」</t>
+  </si>
+  <si>
+    <t>CharacterHealthManager.cs</t>
+  </si>
+  <si>
+    <t>「射撃システムの作成」</t>
+  </si>
+  <si>
+    <t>ShootingManager.cs</t>
+  </si>
+  <si>
+    <t>「各敵キャラクターの作成(全約7種類)」</t>
+  </si>
+  <si>
+    <t>BalloonEnemy,BlueEnemy,etc...</t>
   </si>
   <si>
     <t>その他</t>
@@ -198,94 +126,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「敵撃破時のエフェクト作成」</t>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ゲキハジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NaiagaraSystemを使用しました</t>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「雑魚敵1(ドローン型)のアニメーション作成」</t>
-    <rPh sb="1" eb="4">
-      <t>ザコテキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unreal Engine内で作成</t>
-    <rPh sb="13" eb="14">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>「トゥーン、アウトラインシェーダーの作成」</t>
+  </si>
+  <si>
+    <t>「エンジン内で使用するレイヤーやシーン、タグなどのセレクターの作成」</t>
+  </si>
+  <si>
+    <t>〇〇Selector.cs</t>
   </si>
   <si>
     <t>制作時のこだわり</t>
   </si>
   <si>
     <t>敵を特にこだわりました。強すぎてもプレイ感を損なってしますし、弱すぎても達成感が弱くなってしまうので
-敵の強さには特に注意して作成しました。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>タッセイカン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+敵の強さには特に注意して作成しました。
+また愛らしく見えるように敵キャラクターの挙動を意識しました。</t>
   </si>
   <si>
     <t>操作一覧</t>
@@ -314,9 +169,79 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
+    <t>移動、射撃方向の変更</t>
+  </si>
+  <si>
+    <t>小走り</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>押す長さによってジャンプ力を調整できます</t>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>射撃状態変化</t>
+  </si>
+  <si>
+    <t>複数の種類の射撃方法を変更できます</t>
+  </si>
+  <si>
+    <t>マウス左クリック</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>射撃開始</t>
+  </si>
+  <si>
+    <t>長押しをすることで連続射撃が可能です。</t>
+  </si>
+  <si>
+    <t>Esc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトルへ戻る、ゲームを続ける、オプションなどの画面に移動</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームパッド操作</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左スティック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -328,22 +253,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1メートルほど</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>射撃状態変化</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R1</t>
   </si>
   <si>
     <t>周りの時間が止まり、物の重力を設定できる</t>
@@ -368,193 +281,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マウス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>見渡す</t>
-    <rPh sb="0" eb="2">
-      <t>ミワタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>周りを見る事が出来る</t>
-    <rPh sb="0" eb="1">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マウス左クリック</t>
-    <rPh sb="3" eb="4">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重力決定</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EかRを押したあと重力を決めることができる
-マウスで好きな場所を選び、クリックした方向に重力がかかる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マウス右クリック</t>
-    <rPh sb="3" eb="4">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クイック重力変更</t>
-    <rPh sb="4" eb="6">
-      <t>ジュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>歩いているときに向いている方向に通常落下できる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Esc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトルへ戻る、ゲームを続ける、オプションなどの画面に移動</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲームパッド操作</t>
-    <rPh sb="6" eb="8">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>左スティック</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自身の重力変化、決定</t>
-    <rPh sb="0" eb="2">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自分が無重力になり少しだけふわっと浮かぶ、
-周りの時間を完全に止め重力を設定できる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>物に重力付与</t>
-    <rPh sb="0" eb="1">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>右スティック</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キャンセル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自身の重力を変更しているタイミングで
-変更をキャンセルすることができる</t>
-    <rPh sb="0" eb="2">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -684,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -875,9 +602,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -890,28 +635,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
@@ -919,15 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -938,51 +652,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1190,37 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1229,17 +867,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1251,17 +878,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1437,170 +1053,143 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,8 +1202,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1622,77 +1209,46 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,11 +1468,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K1002"/>
+  <dimension ref="A2:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1925,33 +1479,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="60" t="str">
+      <c r="B5" s="69" t="str">
         <f ca="1">IFERROR(__xludf.UNSUPPORTED(SPARKLINE({1,0})),"")</f>
         <v/>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="64"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="54"/>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="64"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1959,14 +1513,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="54"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1974,237 +1528,207 @@
         <v>5</v>
       </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="71" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B8" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="72" t="str">
+      <c r="E8" s="36"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="67" t="str">
         <f ca="1">IFERROR(__xludf.UNSUPPORTED(SPARKLINE({1,0})),"")</f>
         <v/>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B9" s="53" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="73"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B10" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="59"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="59"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="55" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="59"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="55" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="59"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="55" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="59"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="55" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58" t="s">
+      <c r="D15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="59"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="55" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="59"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="92" t="s">
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B19" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickTop="1"/>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" thickTop="1"/>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3173,31 +2697,18 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="D19:I21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B11:B18"/>
+  <mergeCells count="35">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:D3"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D8:F8"/>
@@ -3206,16 +2717,23 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G8:I9"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:I19"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3231,16 +2749,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
@@ -3250,361 +2768,245 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1">
+      <c r="B3" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="94" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="22" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="22" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="25" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1">
+      <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="27" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1">
-      <c r="B5" s="17" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="27" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1">
+      <c r="B7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1">
-      <c r="B6" s="25" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1">
+      <c r="B8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="27" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1">
+      <c r="B11" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1">
+      <c r="B12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1">
-      <c r="B8" s="31" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1">
+      <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1">
+      <c r="B14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="25" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" customHeight="1">
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="27" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" customHeight="1">
+      <c r="B16" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1">
-      <c r="B14" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1">
-      <c r="B20" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1">
-      <c r="B23" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1">
-      <c r="B24" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
